--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF441B6-B85A-6A4E-8F92-E130462CDAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F791437-C5AA-2443-BBA8-8D2545132F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F791437-C5AA-2443-BBA8-8D2545132F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BE692-AB89-8F4A-9D03-23261C97F695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>facility_name</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>OLNEY ANNEX ST JAMES @ SOLID ROCK</t>
+  </si>
+  <si>
+    <t>GERMANTOWN FIELD HOUSE (LEEDS)</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -775,6 +778,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2BE692-AB89-8F4A-9D03-23261C97F695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2996D3-E14B-414D-9DBB-F59FBFBC538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>facility_name</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>GERMANTOWN FIELD HOUSE (LEEDS)</t>
+  </si>
+  <si>
+    <t>Hopkinson Elem and Little School House</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -783,6 +786,11 @@
         <v>48</v>
       </c>
     </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2996D3-E14B-414D-9DBB-F59FBFBC538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9520020D-7EF7-A04C-8F54-F39C5BC53FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>facility_name</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Hopkinson Elem and Little School House</t>
+  </si>
+  <si>
+    <t>BRIDESBURG ANNEX</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -791,6 +794,11 @@
         <v>49</v>
       </c>
     </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9520020D-7EF7-A04C-8F54-F39C5BC53FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC70CED-6960-E945-9088-F6809CEFB850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>facility_name</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>BRIDESBURG ANNEX</t>
+  </si>
+  <si>
+    <t>RIVERA CHILD DEVELOPMENT CENTER</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,6 +802,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC70CED-6960-E945-9088-F6809CEFB850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6259C4-333C-FE4A-B66D-3236150D98D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>facility_name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>RIVERA CHILD DEVELOPMENT CENTER</t>
+  </si>
+  <si>
+    <t>HAVERFORD CHILD CARE BRIGHT FUTURES</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -807,6 +810,11 @@
         <v>51</v>
       </c>
     </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6259C4-333C-FE4A-B66D-3236150D98D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E4C62-2786-3A49-B834-5FC64D74DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>facility_name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>HAVERFORD CHILD CARE BRIGHT FUTURES</t>
+  </si>
+  <si>
+    <t>TRINIDAD CHILD CARE CENTER</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -815,6 +818,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E4C62-2786-3A49-B834-5FC64D74DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749139D2-DC97-7042-8296-DEC8E2D0BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>facility_name</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>TRINIDAD CHILD CARE CENTER</t>
+  </si>
+  <si>
+    <t>OLNEY ES ANNEX (TRIUMPHANT FAITH-TABOR ROAD)</t>
+  </si>
+  <si>
+    <t>LABRUM MS</t>
   </si>
 </sst>
 </file>
@@ -545,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A55" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -823,6 +829,16 @@
         <v>53</v>
       </c>
     </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749139D2-DC97-7042-8296-DEC8E2D0BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215A713-D485-F74D-A11A-7ED18DC49FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>facility_name</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>LABRUM MS</t>
+  </si>
+  <si>
+    <t>THE VAUX SCHOOL</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A56"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,6 +842,11 @@
         <v>55</v>
       </c>
     </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9215A713-D485-F74D-A11A-7ED18DC49FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D1261-EAF7-5F42-A055-7D9471289C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>facility_name</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>THE VAUX SCHOOL</t>
+  </si>
+  <si>
+    <t>BARTRAM HS FIELD HOUSE</t>
+  </si>
+  <si>
+    <t>WEST PHILA HS FIELD HOUSE</t>
   </si>
 </sst>
 </file>
@@ -554,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A58" sqref="A58:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -847,6 +853,16 @@
         <v>56</v>
       </c>
     </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D1261-EAF7-5F42-A055-7D9471289C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815FB37-CA7E-8849-AA3E-2CD3137DE706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>facility_name</t>
   </si>
@@ -197,6 +197,27 @@
   </si>
   <si>
     <t>WEST PHILA HS FIELD HOUSE</t>
+  </si>
+  <si>
+    <t>Washington Fieldhouse</t>
+  </si>
+  <si>
+    <t>SOUTH PHILA HS FIELD HOUSE</t>
+  </si>
+  <si>
+    <t>West Philadelphia Field House</t>
+  </si>
+  <si>
+    <t>Mastery Charter School Pastorius-Richardson Elementary</t>
+  </si>
+  <si>
+    <t>The Verree House</t>
+  </si>
+  <si>
+    <t>Frankford HS Field (Field House)</t>
+  </si>
+  <si>
+    <t>Bus Garage (Broad St)</t>
   </si>
 </sst>
 </file>
@@ -560,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A59"/>
+      <selection activeCell="A62" sqref="A62:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -863,6 +884,41 @@
         <v>58</v>
       </c>
     </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/interim/known_missing_matches.xlsx
+++ b/data/interim/known_missing_matches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/LocalWork/DataVisualizations/asbestos-dashboard/asbestos-dashboard-data/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815FB37-CA7E-8849-AA3E-2CD3137DE706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED5405C-F3BC-E84F-A1CB-32E0F85809AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>facility_name</t>
   </si>
@@ -218,6 +218,21 @@
   </si>
   <si>
     <t>Bus Garage (Broad St)</t>
+  </si>
+  <si>
+    <t>LUDLOW COMMUNITY CENTER</t>
+  </si>
+  <si>
+    <t>Bluford Charter School</t>
+  </si>
+  <si>
+    <t>Duckery School</t>
+  </si>
+  <si>
+    <t>Building 21 @ Kinsey School</t>
+  </si>
+  <si>
+    <t>Pennell School Kindergarten Mobile bldg</t>
   </si>
 </sst>
 </file>
@@ -581,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:A66"/>
+      <selection activeCell="A69" sqref="A69:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -919,6 +934,31 @@
         <v>65</v>
       </c>
     </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
